--- a/report_ca_nhan/CẦN THƠ/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -1026,10 +1026,10 @@
         <v>8000000</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N2" t="n">
-        <v>800000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="3">
@@ -1082,10 +1082,10 @@
         <v>500000</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N3" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4">
@@ -1138,10 +1138,10 @@
         <v>21500000</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2150000</v>
+        <v>1720000</v>
       </c>
     </row>
     <row r="5">
@@ -1194,10 +1194,10 @@
         <v>3700000</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N5" t="n">
-        <v>370000</v>
+        <v>296000</v>
       </c>
     </row>
     <row r="6">
@@ -1308,10 +1308,10 @@
         <v>7000000</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N7" t="n">
-        <v>700000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="8">
@@ -1364,10 +1364,10 @@
         <v>3500000</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N8" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="9">
@@ -1478,10 +1478,10 @@
         <v>2800000</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N10" t="n">
-        <v>280000</v>
+        <v>224000</v>
       </c>
     </row>
     <row r="11">
@@ -1648,10 +1648,10 @@
         <v>1200000</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N13" t="n">
-        <v>120000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="14">
@@ -1762,10 +1762,10 @@
         <v>1300000</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N15" t="n">
-        <v>130000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="16">
@@ -1818,10 +1818,10 @@
         <v>7500000</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N16" t="n">
-        <v>750000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="17">
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>1800000</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N18" t="n">
-        <v>180000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="19">
@@ -1986,10 +1986,10 @@
         <v>1050000</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N19" t="n">
-        <v>105000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="20">
@@ -2020,10 +2020,10 @@
         <v>66750000</v>
       </c>
       <c r="M20" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="N20" t="n">
-        <v>6675000</v>
+        <v>5478000</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3475000</v>
+        <v>2918000</v>
       </c>
     </row>
     <row r="8">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="17">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2850000</v>
+        <v>2280000</v>
       </c>
     </row>
     <row r="26">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9827500</v>
+        <v>9270500</v>
       </c>
     </row>
     <row r="32">
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="33">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2900000</v>
+        <v>2330000</v>
       </c>
     </row>
     <row r="34">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13077500</v>
+        <v>11880500</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -896,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,35 +1151,35 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Khách cửa hàng</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nâng cung chân mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3700000</v>
+        <v>11000000</v>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -1188,16 +1188,16 @@
         <v/>
       </c>
       <c r="K5" t="n">
-        <v>3700000</v>
+        <v>11000000</v>
       </c>
       <c r="L5" t="n">
-        <v>3700000</v>
+        <v>11000000</v>
       </c>
       <c r="M5" t="n">
         <v>0.08</v>
       </c>
       <c r="N5" t="n">
-        <v>296000</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,21 +1207,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1231,31 +1231,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Làm má Lúm</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
       <c r="J6" t="n">
-        <v>1000000</v>
+        <v/>
       </c>
       <c r="K6" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="L6" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="M6" t="n">
         <v>0.1</v>
       </c>
       <c r="N6" t="n">
-        <v>150000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="7">
@@ -1265,35 +1263,35 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07-07-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cửa hàng</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Nâng cung chân mày</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7000000</v>
+        <v>3700000</v>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -1302,16 +1300,16 @@
         <v/>
       </c>
       <c r="K7" t="n">
-        <v>7000000</v>
+        <v>3700000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000000</v>
+        <v>3700000</v>
       </c>
       <c r="M7" t="n">
         <v>0.08</v>
       </c>
       <c r="N7" t="n">
-        <v>560000</v>
+        <v>296000</v>
       </c>
     </row>
     <row r="8">
@@ -1321,53 +1319,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="I8" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="J8" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="K8" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="L8" t="n">
-        <v>3500000</v>
+        <v>1500000</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>280000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="9">
@@ -1377,55 +1377,53 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07-09-2024</t>
+          <t>07-07-2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>7000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
       </c>
       <c r="J9" t="n">
-        <v>400000</v>
+        <v/>
       </c>
       <c r="K9" t="n">
-        <v>900000</v>
+        <v>7000000</v>
       </c>
       <c r="L9" t="n">
-        <v>900000</v>
+        <v>7000000</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N9" t="n">
-        <v>90000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="10">
@@ -1435,21 +1433,21 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1459,11 +1457,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2800000</v>
+        <v>4000000</v>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -1472,16 +1470,16 @@
         <v/>
       </c>
       <c r="K10" t="n">
-        <v>2800000</v>
+        <v>4000000</v>
       </c>
       <c r="L10" t="n">
-        <v>2800000</v>
+        <v>3500000</v>
       </c>
       <c r="M10" t="n">
         <v>0.08</v>
       </c>
       <c r="N10" t="n">
-        <v>224000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="11">
@@ -1491,11 +1489,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-09-2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1505,7 +1503,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1515,29 +1513,31 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="I11" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="J11" t="n">
-        <v/>
+        <v>400000</v>
       </c>
       <c r="K11" t="n">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="L11" t="n">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="M11" t="n">
         <v>0.1</v>
       </c>
       <c r="N11" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="12">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07-14-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1561,41 +1561,39 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>2800000</v>
+      </c>
+      <c r="I12" t="n">
+        <v/>
       </c>
       <c r="J12" t="n">
-        <v>1300000</v>
+        <v/>
       </c>
       <c r="K12" t="n">
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="L12" t="n">
-        <v>1500000</v>
+        <v>2800000</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N12" t="n">
-        <v>150000</v>
+        <v>224000</v>
       </c>
     </row>
     <row r="13">
@@ -1605,11 +1603,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07-14-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1619,21 +1617,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="I13" t="n">
         <v/>
@@ -1642,16 +1640,16 @@
         <v/>
       </c>
       <c r="K13" t="n">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="L13" t="n">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N13" t="n">
-        <v>96000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1659,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1675,7 +1673,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1697,10 +1695,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="K14" t="n">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="L14" t="n">
         <v>1500000</v>
@@ -1719,11 +1717,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-14-2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1733,21 +1731,21 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tiêm botox</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -1756,16 +1754,16 @@
         <v/>
       </c>
       <c r="K15" t="n">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="L15" t="n">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="M15" t="n">
         <v>0.08</v>
       </c>
       <c r="N15" t="n">
-        <v>104000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="16">
@@ -1775,11 +1773,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-14-2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1789,39 +1787,41 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="I16" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="J16" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="K16" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="L16" t="n">
-        <v>7500000</v>
+        <v>1500000</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N16" t="n">
-        <v>600000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="17">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1845,21 +1845,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Mở góc mắt</t>
+          <t>Tiêm botox</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8000000</v>
+        <v>1300000</v>
       </c>
       <c r="I17" t="n">
         <v/>
@@ -1868,16 +1868,16 @@
         <v/>
       </c>
       <c r="K17" t="n">
-        <v>8000000</v>
+        <v>1300000</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="M17" t="n">
         <v>0.08</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="18">
@@ -1887,11 +1887,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07-17-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1911,11 +1911,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1800000</v>
+        <v>10000000</v>
       </c>
       <c r="I18" t="n">
         <v/>
@@ -1924,16 +1924,16 @@
         <v/>
       </c>
       <c r="K18" t="n">
-        <v>1800000</v>
+        <v>10000000</v>
       </c>
       <c r="L18" t="n">
-        <v>1800000</v>
+        <v>7500000</v>
       </c>
       <c r="M18" t="n">
         <v>0.08</v>
       </c>
       <c r="N18" t="n">
-        <v>144000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="19">
@@ -1943,11 +1943,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07-17-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1967,11 +1967,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Mở góc mắt</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1050000</v>
+        <v>8000000</v>
       </c>
       <c r="I19" t="n">
         <v/>
@@ -1980,50 +1980,162 @@
         <v/>
       </c>
       <c r="K19" t="n">
-        <v>1050000</v>
+        <v>8000000</v>
       </c>
       <c r="L19" t="n">
-        <v>1050000</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0.08</v>
       </c>
       <c r="N19" t="n">
-        <v>84000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>563</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nguyễn Bảo Nhi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="I20" t="n">
+        <v/>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>564</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Đặng Thị Ngọc Huyền</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>74350000</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>88350000</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>3700000</v>
       </c>
-      <c r="K20" t="n">
-        <v>78050000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>66750000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5478000</v>
+      <c r="K22" t="n">
+        <v>92050000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>80750000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6658000</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2602,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -2500,7 +2612,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>682500</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="4">
@@ -2510,7 +2622,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5460000</v>
+        <v>5880000</v>
       </c>
     </row>
     <row r="5">
@@ -2720,7 +2832,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2280000</v>
+        <v>3460000</v>
       </c>
     </row>
     <row r="26">
@@ -2780,7 +2892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9270500</v>
+        <v>9743000</v>
       </c>
     </row>
     <row r="32">
@@ -2800,7 +2912,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2330000</v>
+        <v>3510000</v>
       </c>
     </row>
     <row r="34">
@@ -2810,7 +2922,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11880500</v>
+        <v>13533000</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -896,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2107,35 +2107,93 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>572</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Như Huỳnh</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>88350000</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="K22" t="n">
-        <v>92050000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>80750000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6658000</v>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>88850000</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>94050000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>82750000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6858000</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2710,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2918000</v>
+        <v>3118000</v>
       </c>
     </row>
     <row r="8">
@@ -2892,7 +2950,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9743000</v>
+        <v>9943000</v>
       </c>
     </row>
     <row r="32">
@@ -2922,7 +2980,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13533000</v>
+        <v>13733000</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -790,7 +790,7 @@
         <v>0.02</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3">
@@ -848,7 +848,7 @@
         <v>0.02</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>0.04</v>
       </c>
       <c r="N4" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2165,35 +2165,147 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>574</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Trần thị mỹ duyên</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I23" t="n">
+        <v/>
+      </c>
+      <c r="J23" t="n">
+        <v/>
+      </c>
+      <c r="K23" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>578</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>đường thị út</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="I24" t="n">
+        <v/>
+      </c>
+      <c r="J24" t="n">
+        <v/>
+      </c>
+      <c r="K24" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>88850000</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>100850000</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>5200000</v>
       </c>
-      <c r="K23" t="n">
-        <v>94050000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>82750000</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6858000</v>
+      <c r="K25" t="n">
+        <v>106050000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>94750000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7818000</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2772,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -2670,7 +2782,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>735000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="4">
@@ -2680,7 +2792,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5880000</v>
+        <v>6160000</v>
       </c>
     </row>
     <row r="5">
@@ -2700,7 +2812,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="7">
@@ -2800,7 +2912,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>280000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="17">
@@ -2890,7 +3002,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3460000</v>
+        <v>4020000</v>
       </c>
     </row>
     <row r="26">
@@ -2950,7 +3062,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9943000</v>
+        <v>10238000</v>
       </c>
     </row>
     <row r="32">
@@ -2960,7 +3072,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>280000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="33">
@@ -2970,7 +3082,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3510000</v>
+        <v>4070000</v>
       </c>
     </row>
     <row r="34">
@@ -2980,7 +3092,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13733000</v>
+        <v>14988000</v>
       </c>
     </row>
   </sheetData>
